--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H2">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I2">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J2">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.190772211437936</v>
+        <v>0.196272</v>
       </c>
       <c r="N2">
-        <v>0.190772211437936</v>
+        <v>0.588816</v>
       </c>
       <c r="O2">
-        <v>0.02964800127054067</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P2">
-        <v>0.02964800127054067</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q2">
-        <v>1.391282190967635</v>
+        <v>1.54338748896</v>
       </c>
       <c r="R2">
-        <v>1.391282190967635</v>
+        <v>13.89048740064</v>
       </c>
       <c r="S2">
-        <v>0.003815829461565481</v>
+        <v>0.003704217029388386</v>
       </c>
       <c r="T2">
-        <v>0.003815829461565481</v>
+        <v>0.004252513294640732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H3">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I3">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J3">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.37941604908321</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N3">
-        <v>4.37941604908321</v>
+        <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6806071576608337</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P3">
-        <v>0.6806071576608337</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q3">
-        <v>31.93863251886426</v>
+        <v>37.81156494126444</v>
       </c>
       <c r="R3">
-        <v>31.93863251886426</v>
+        <v>340.30408447138</v>
       </c>
       <c r="S3">
-        <v>0.08759716448525337</v>
+        <v>0.0907498886476244</v>
       </c>
       <c r="T3">
-        <v>0.08759716448525337</v>
+        <v>0.1041826396508167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H4">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I4">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J4">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86438416468629</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N4">
-        <v>1.86438416468629</v>
+        <v>0.092401</v>
       </c>
       <c r="O4">
-        <v>0.2897448410686257</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P4">
-        <v>0.2897448410686257</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q4">
-        <v>13.59676268309116</v>
+        <v>0.2421988318377777</v>
       </c>
       <c r="R4">
-        <v>13.59676268309116</v>
+        <v>2.17978948654</v>
       </c>
       <c r="S4">
-        <v>0.03729144810799948</v>
+        <v>0.0005812908578104472</v>
       </c>
       <c r="T4">
-        <v>0.03729144810799948</v>
+        <v>0.0006673332262338291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.6680416126258</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H5">
-        <v>13.6680416126258</v>
+        <v>23.59054</v>
       </c>
       <c r="I5">
-        <v>0.2412124482422406</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J5">
-        <v>0.2412124482422406</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.190772211437936</v>
+        <v>0.072589</v>
       </c>
       <c r="N5">
-        <v>0.190772211437936</v>
+        <v>0.217767</v>
       </c>
       <c r="O5">
-        <v>0.02964800127054067</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P5">
-        <v>0.02964800127054067</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q5">
-        <v>2.607482524466357</v>
+        <v>0.5708045693533333</v>
       </c>
       <c r="R5">
-        <v>2.607482524466357</v>
+        <v>5.137241124179999</v>
       </c>
       <c r="S5">
-        <v>0.007151466971956173</v>
+        <v>0.001369963163091392</v>
       </c>
       <c r="T5">
-        <v>0.007151466971956173</v>
+        <v>0.001572744393212868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.6680416126258</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H6">
-        <v>13.6680416126258</v>
+        <v>23.59054</v>
       </c>
       <c r="I6">
-        <v>0.2412124482422406</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J6">
-        <v>0.2412124482422406</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.37941604908321</v>
+        <v>1.868607</v>
       </c>
       <c r="N6">
-        <v>4.37941604908321</v>
+        <v>3.737214</v>
       </c>
       <c r="O6">
-        <v>0.6806071576608337</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P6">
-        <v>0.6806071576608337</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q6">
-        <v>59.85804079787059</v>
+        <v>14.69381605926</v>
       </c>
       <c r="R6">
-        <v>59.85804079787059</v>
+        <v>88.16289635555998</v>
       </c>
       <c r="S6">
-        <v>0.1641709187905623</v>
+        <v>0.03526598735751581</v>
       </c>
       <c r="T6">
-        <v>0.1641709187905623</v>
+        <v>0.0269906935611761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H7">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J7">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86438416468629</v>
+        <v>0.196272</v>
       </c>
       <c r="N7">
-        <v>1.86438416468629</v>
+        <v>0.588816</v>
       </c>
       <c r="O7">
-        <v>0.2897448410686257</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P7">
-        <v>0.2897448410686257</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q7">
-        <v>25.4824803448528</v>
+        <v>2.969551722192</v>
       </c>
       <c r="R7">
-        <v>25.4824803448528</v>
+        <v>26.725965499728</v>
       </c>
       <c r="S7">
-        <v>0.06989006247972208</v>
+        <v>0.007127091632967294</v>
       </c>
       <c r="T7">
-        <v>0.06989006247972208</v>
+        <v>0.008182040004907703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6481936209349</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H8">
-        <v>13.6481936209349</v>
+        <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2408621725550469</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J8">
-        <v>0.2408621725550469</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.190772211437936</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N8">
-        <v>0.190772211437936</v>
+        <v>14.425447</v>
       </c>
       <c r="O8">
-        <v>0.02964800127054067</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P8">
-        <v>0.02964800127054067</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q8">
-        <v>2.603696079198882</v>
+        <v>72.75126861742788</v>
       </c>
       <c r="R8">
-        <v>2.603696079198882</v>
+        <v>654.761417556851</v>
       </c>
       <c r="S8">
-        <v>0.007141081997937217</v>
+        <v>0.1746071482696006</v>
       </c>
       <c r="T8">
-        <v>0.007141081997937217</v>
+        <v>0.2004524069364212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6481936209349</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H9">
-        <v>13.6481936209349</v>
+        <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2408621725550469</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J9">
-        <v>0.2408621725550469</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.37941604908321</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N9">
-        <v>4.37941604908321</v>
+        <v>0.092401</v>
       </c>
       <c r="O9">
-        <v>0.6806071576608337</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P9">
-        <v>0.6806071576608337</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q9">
-        <v>59.7711181845174</v>
+        <v>0.4660021953925556</v>
       </c>
       <c r="R9">
-        <v>59.7711181845174</v>
+        <v>4.194019758533</v>
       </c>
       <c r="S9">
-        <v>0.1639325186507038</v>
+        <v>0.00111843155413204</v>
       </c>
       <c r="T9">
-        <v>0.1639325186507038</v>
+        <v>0.001283981207191171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6481936209349</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H10">
-        <v>13.6481936209349</v>
+        <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2408621725550469</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J10">
-        <v>0.2408621725550469</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.86438416468629</v>
+        <v>0.072589</v>
       </c>
       <c r="N10">
-        <v>1.86438416468629</v>
+        <v>0.217767</v>
       </c>
       <c r="O10">
-        <v>0.2897448410686257</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P10">
-        <v>0.2897448410686257</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q10">
-        <v>25.44547606344346</v>
+        <v>1.098255431045667</v>
       </c>
       <c r="R10">
-        <v>25.44547606344346</v>
+        <v>9.884298879411</v>
       </c>
       <c r="S10">
-        <v>0.06978857190640597</v>
+        <v>0.002635874982399236</v>
       </c>
       <c r="T10">
-        <v>0.06978857190640597</v>
+        <v>0.003026035817214097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.2825908365474</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H11">
-        <v>14.2825908365474</v>
+        <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2520579612329652</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J11">
-        <v>0.2520579612329652</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.190772211437936</v>
+        <v>1.868607</v>
       </c>
       <c r="N11">
-        <v>0.190772211437936</v>
+        <v>3.737214</v>
       </c>
       <c r="O11">
-        <v>0.02964800127054067</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P11">
-        <v>0.02964800127054067</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q11">
-        <v>2.724721438951347</v>
+        <v>28.271608456377</v>
       </c>
       <c r="R11">
-        <v>2.724721438951347</v>
+        <v>169.629650738262</v>
       </c>
       <c r="S11">
-        <v>0.007473014754884842</v>
+        <v>0.0678534549757689</v>
       </c>
       <c r="T11">
-        <v>0.007473014754884842</v>
+        <v>0.05193139190324503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.2825908365474</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H12">
-        <v>14.2825908365474</v>
+        <v>43.147084</v>
       </c>
       <c r="I12">
-        <v>0.2520579612329652</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J12">
-        <v>0.2520579612329652</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.37941604908321</v>
+        <v>0.196272</v>
       </c>
       <c r="N12">
-        <v>4.37941604908321</v>
+        <v>0.588816</v>
       </c>
       <c r="O12">
-        <v>0.6806071576608337</v>
+        <v>0.02813229386822481</v>
       </c>
       <c r="P12">
-        <v>0.6806071576608337</v>
+        <v>0.03089009369338271</v>
       </c>
       <c r="Q12">
-        <v>62.54940753206448</v>
+        <v>2.822854823616</v>
       </c>
       <c r="R12">
-        <v>62.54940753206448</v>
+        <v>25.405693412544</v>
       </c>
       <c r="S12">
-        <v>0.171552452560553</v>
+        <v>0.006775010801840534</v>
       </c>
       <c r="T12">
-        <v>0.171552452560553</v>
+        <v>0.007777844353498498</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.2825908365474</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H13">
-        <v>14.2825908365474</v>
+        <v>43.147084</v>
       </c>
       <c r="I13">
-        <v>0.2520579612329652</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J13">
-        <v>0.2520579612329652</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.86438416468629</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N13">
-        <v>1.86438416468629</v>
+        <v>14.425447</v>
       </c>
       <c r="O13">
-        <v>0.2897448410686257</v>
+        <v>0.6892151609068061</v>
       </c>
       <c r="P13">
-        <v>0.2897448410686257</v>
+        <v>0.7567787040415452</v>
       </c>
       <c r="Q13">
-        <v>26.62823618635248</v>
+        <v>69.15733038294978</v>
       </c>
       <c r="R13">
-        <v>26.62823618635248</v>
+        <v>622.415973446548</v>
       </c>
       <c r="S13">
-        <v>0.07303249391752732</v>
+        <v>0.1659814937881751</v>
       </c>
       <c r="T13">
-        <v>0.07303249391752732</v>
+        <v>0.1905499875948375</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.77219117909744</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H14">
-        <v>7.77219117909744</v>
+        <v>43.147084</v>
       </c>
       <c r="I14">
-        <v>0.137162975914929</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J14">
-        <v>0.137162975914929</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.190772211437936</v>
+        <v>0.03080033333333333</v>
       </c>
       <c r="N14">
-        <v>0.190772211437936</v>
+        <v>0.092401</v>
       </c>
       <c r="O14">
-        <v>0.02964800127054067</v>
+        <v>0.004414710343669059</v>
       </c>
       <c r="P14">
-        <v>0.02964800127054067</v>
+        <v>0.004847482995302872</v>
       </c>
       <c r="Q14">
-        <v>1.482718098954838</v>
+        <v>0.4429815231871111</v>
       </c>
       <c r="R14">
-        <v>1.482718098954838</v>
+        <v>3.986833708684</v>
       </c>
       <c r="S14">
-        <v>0.004066608084196953</v>
+        <v>0.001063180642341355</v>
       </c>
       <c r="T14">
-        <v>0.004066608084196953</v>
+        <v>0.00122055208436526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.77219117909744</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H15">
-        <v>7.77219117909744</v>
+        <v>43.147084</v>
       </c>
       <c r="I15">
-        <v>0.137162975914929</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J15">
-        <v>0.137162975914929</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.37941604908321</v>
+        <v>0.072589</v>
       </c>
       <c r="N15">
-        <v>4.37941604908321</v>
+        <v>0.217767</v>
       </c>
       <c r="O15">
-        <v>0.6806071576608337</v>
+        <v>0.01040441366878908</v>
       </c>
       <c r="P15">
-        <v>0.6806071576608337</v>
+        <v>0.01142435503336674</v>
       </c>
       <c r="Q15">
-        <v>34.03765878628229</v>
+        <v>1.044001226825333</v>
       </c>
       <c r="R15">
-        <v>34.03765878628229</v>
+        <v>9.396011041428</v>
       </c>
       <c r="S15">
-        <v>0.09335410317376121</v>
+        <v>0.00250566183202292</v>
       </c>
       <c r="T15">
-        <v>0.09335410317376121</v>
+        <v>0.002876548584495508</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.77219117909744</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H16">
-        <v>7.77219117909744</v>
+        <v>43.147084</v>
       </c>
       <c r="I16">
-        <v>0.137162975914929</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J16">
-        <v>0.137162975914929</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.86438416468629</v>
+        <v>1.868607</v>
       </c>
       <c r="N16">
-        <v>1.86438416468629</v>
+        <v>3.737214</v>
       </c>
       <c r="O16">
-        <v>0.2897448410686257</v>
+        <v>0.267833421212511</v>
       </c>
       <c r="P16">
-        <v>0.2897448410686257</v>
+        <v>0.1960593642364025</v>
       </c>
       <c r="Q16">
-        <v>14.49035015922373</v>
+        <v>26.874981063996</v>
       </c>
       <c r="R16">
-        <v>14.49035015922373</v>
+        <v>161.249886383976</v>
       </c>
       <c r="S16">
-        <v>0.03974226465697083</v>
+        <v>0.06450147045627921</v>
       </c>
       <c r="T16">
-        <v>0.03974226465697083</v>
+        <v>0.04936596289454691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.54360033333333</v>
+      </c>
+      <c r="H17">
+        <v>43.630801</v>
+      </c>
+      <c r="I17">
+        <v>0.243526699294608</v>
+      </c>
+      <c r="J17">
+        <v>0.2546136943039924</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.196272</v>
+      </c>
+      <c r="N17">
+        <v>0.588816</v>
+      </c>
+      <c r="O17">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P17">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q17">
+        <v>2.854501524624</v>
+      </c>
+      <c r="R17">
+        <v>25.690513721616</v>
+      </c>
+      <c r="S17">
+        <v>0.006850964669314727</v>
+      </c>
+      <c r="T17">
+        <v>0.007865040872668629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.54360033333333</v>
+      </c>
+      <c r="H18">
+        <v>43.630801</v>
+      </c>
+      <c r="I18">
+        <v>0.243526699294608</v>
+      </c>
+      <c r="J18">
+        <v>0.2546136943039924</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N18">
+        <v>14.425447</v>
+      </c>
+      <c r="O18">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P18">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q18">
+        <v>69.9326452658941</v>
+      </c>
+      <c r="R18">
+        <v>629.3938073930469</v>
+      </c>
+      <c r="S18">
+        <v>0.1678422932394366</v>
+      </c>
+      <c r="T18">
+        <v>0.1926862216066055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.54360033333333</v>
+      </c>
+      <c r="H19">
+        <v>43.630801</v>
+      </c>
+      <c r="I19">
+        <v>0.243526699294608</v>
+      </c>
+      <c r="J19">
+        <v>0.2546136943039924</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.092401</v>
+      </c>
+      <c r="O19">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P19">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q19">
+        <v>0.4479477381334444</v>
+      </c>
+      <c r="R19">
+        <v>4.031529643201</v>
+      </c>
+      <c r="S19">
+        <v>0.00107509983833549</v>
+      </c>
+      <c r="T19">
+        <v>0.001234235553509847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.54360033333333</v>
+      </c>
+      <c r="H20">
+        <v>43.630801</v>
+      </c>
+      <c r="I20">
+        <v>0.243526699294608</v>
+      </c>
+      <c r="J20">
+        <v>0.2546136943039924</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.072589</v>
+      </c>
+      <c r="N20">
+        <v>0.217767</v>
+      </c>
+      <c r="O20">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P20">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q20">
+        <v>1.055705404596333</v>
+      </c>
+      <c r="R20">
+        <v>9.501348641366999</v>
+      </c>
+      <c r="S20">
+        <v>0.002533752518855908</v>
+      </c>
+      <c r="T20">
+        <v>0.002908797240085916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.54360033333333</v>
+      </c>
+      <c r="H21">
+        <v>43.630801</v>
+      </c>
+      <c r="I21">
+        <v>0.243526699294608</v>
+      </c>
+      <c r="J21">
+        <v>0.2546136943039924</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.868607</v>
+      </c>
+      <c r="N21">
+        <v>3.737214</v>
+      </c>
+      <c r="O21">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P21">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q21">
+        <v>27.176273388069</v>
+      </c>
+      <c r="R21">
+        <v>163.057640328414</v>
+      </c>
+      <c r="S21">
+        <v>0.06522458902866524</v>
+      </c>
+      <c r="T21">
+        <v>0.04991939903112248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.8015105</v>
+      </c>
+      <c r="H22">
+        <v>15.603021</v>
+      </c>
+      <c r="I22">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J22">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.196272</v>
+      </c>
+      <c r="N22">
+        <v>0.588816</v>
+      </c>
+      <c r="O22">
+        <v>0.02813229386822481</v>
+      </c>
+      <c r="P22">
+        <v>0.03089009369338271</v>
+      </c>
+      <c r="Q22">
+        <v>1.531218068856</v>
+      </c>
+      <c r="R22">
+        <v>9.187308413136</v>
+      </c>
+      <c r="S22">
+        <v>0.00367500973471387</v>
+      </c>
+      <c r="T22">
+        <v>0.002812655167667147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.8015105</v>
+      </c>
+      <c r="H23">
+        <v>15.603021</v>
+      </c>
+      <c r="I23">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J23">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.808482333333333</v>
+      </c>
+      <c r="N23">
+        <v>14.425447</v>
+      </c>
+      <c r="O23">
+        <v>0.6892151609068061</v>
+      </c>
+      <c r="P23">
+        <v>0.7567787040415452</v>
+      </c>
+      <c r="Q23">
+        <v>37.5134254125645</v>
+      </c>
+      <c r="R23">
+        <v>225.080552475387</v>
+      </c>
+      <c r="S23">
+        <v>0.09003433696196941</v>
+      </c>
+      <c r="T23">
+        <v>0.0689074482528643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.8015105</v>
+      </c>
+      <c r="H24">
+        <v>15.603021</v>
+      </c>
+      <c r="I24">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J24">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03080033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.092401</v>
+      </c>
+      <c r="O24">
+        <v>0.004414710343669059</v>
+      </c>
+      <c r="P24">
+        <v>0.004847482995302872</v>
+      </c>
+      <c r="Q24">
+        <v>0.2402891239035</v>
+      </c>
+      <c r="R24">
+        <v>1.441734743421</v>
+      </c>
+      <c r="S24">
+        <v>0.0005767074510497274</v>
+      </c>
+      <c r="T24">
+        <v>0.000441380924002765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.8015105</v>
+      </c>
+      <c r="H25">
+        <v>15.603021</v>
+      </c>
+      <c r="I25">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J25">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.072589</v>
+      </c>
+      <c r="N25">
+        <v>0.217767</v>
+      </c>
+      <c r="O25">
+        <v>0.01040441366878908</v>
+      </c>
+      <c r="P25">
+        <v>0.01142435503336674</v>
+      </c>
+      <c r="Q25">
+        <v>0.5663038456845</v>
+      </c>
+      <c r="R25">
+        <v>3.397823074107</v>
+      </c>
+      <c r="S25">
+        <v>0.001359161172419627</v>
+      </c>
+      <c r="T25">
+        <v>0.001040228998358352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.8015105</v>
+      </c>
+      <c r="H26">
+        <v>15.603021</v>
+      </c>
+      <c r="I26">
+        <v>0.1306331347144344</v>
+      </c>
+      <c r="J26">
+        <v>0.0910536301892045</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.868607</v>
+      </c>
+      <c r="N26">
+        <v>3.737214</v>
+      </c>
+      <c r="O26">
+        <v>0.267833421212511</v>
+      </c>
+      <c r="P26">
+        <v>0.1960593642364025</v>
+      </c>
+      <c r="Q26">
+        <v>14.5779571308735</v>
+      </c>
+      <c r="R26">
+        <v>58.311828523494</v>
+      </c>
+      <c r="S26">
+        <v>0.03498791939428181</v>
+      </c>
+      <c r="T26">
+        <v>0.01785191684631194</v>
       </c>
     </row>
   </sheetData>
